--- a/WDFramework/Editor/Tools/ExcelHelper/基础统一白板.xlsx
+++ b/WDFramework/Editor/Tools/ExcelHelper/基础统一白板.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\鸽鸽塔防\Assets\WDFramework\Editor\Tools\ExcelHelper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\《鸽鸽塔防》定档最终版\Assets\WDFramework\Editor\Tools\ExcelHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A09FFAB-923A-4C5C-818C-FFA420631729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA554CB-1C77-4197-AA21-779C5D050389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3324" yWindow="1992" windowWidth="18936" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="852" yWindow="2244" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NonameExcel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>PropertyName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,19 +44,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KeyMark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StartRead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字段中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读表规则：
+1、PropertyName代表字段名、PropertyType为字段对应类型 、StartRead为开始读的第一行
+2、配置表第一列为页序号，代表是该页第几条数据，这一列不能修改
+3、下方"NonameExcel"的表名对应容器类名和配置类名
+4、若要注释一行，请在第一列加//，读表序列化时候会忽略这一行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +91,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,18 +116,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -114,14 +156,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -407,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -419,19 +500,23 @@
     <col min="2" max="16384" width="11.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -439,15 +524,61 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>IF(C5&lt;&gt;"", COUNTIF($C$5:C5, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="str">
+        <f>IF(C6&lt;&gt;"", COUNTIF($C$5:C6, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="str">
+        <f>IF(C7&lt;&gt;"", COUNTIF($C$5:C7, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="str">
+        <f>IF(C8&lt;&gt;"", COUNTIF($C$5:C8, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="str">
+        <f>IF(C9&lt;&gt;"", COUNTIF($C$5:C9, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="str">
+        <f>IF(C10&lt;&gt;"", COUNTIF($C$5:C10, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="str">
+        <f>IF(C11&lt;&gt;"", COUNTIF($C$5:C11, "&lt;&gt;"), "")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
